--- a/Info/TechNewSystem/Articl.xlsx
+++ b/Info/TechNewSystem/Articl.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kristal\Info\TechNewSystem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Client\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD967FF2-E779-48B5-B560-E6DB1A88E37A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF2D2E5D-F4D5-4BC4-B5CE-3542ECF9653C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -463,7 +463,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -498,6 +498,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -840,7 +841,7 @@
   <dimension ref="A2:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -940,7 +941,7 @@
       <c r="G8" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="14" t="s">
         <v>42</v>
       </c>
       <c r="I8" s="2" t="s">
@@ -957,7 +958,7 @@
       <c r="G9" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I9" t="s">
@@ -977,7 +978,7 @@
       <c r="G10" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="14" t="s">
         <v>44</v>
       </c>
       <c r="J10" s="3" t="s">
@@ -997,7 +998,7 @@
       <c r="G11" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="14" t="s">
         <v>45</v>
       </c>
       <c r="J11" s="1">
@@ -1069,7 +1070,7 @@
       <c r="G14" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="14" t="s">
         <v>48</v>
       </c>
       <c r="J14" s="1" t="s">
@@ -1101,7 +1102,7 @@
       <c r="G15" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="14" t="s">
         <v>49</v>
       </c>
       <c r="J15" s="1">
@@ -1127,7 +1128,7 @@
       <c r="G16" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="14" t="s">
         <v>50</v>
       </c>
       <c r="J16" s="1" t="s">
@@ -1151,7 +1152,7 @@
       <c r="G17" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="14" t="s">
         <v>51</v>
       </c>
       <c r="J17" s="1">
@@ -1172,7 +1173,7 @@
       <c r="G18" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="14" t="s">
         <v>52</v>
       </c>
       <c r="J18" s="1">
@@ -1192,7 +1193,7 @@
       <c r="G19" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="14" t="s">
         <v>53</v>
       </c>
       <c r="J19" s="1">
@@ -1212,7 +1213,7 @@
       <c r="G20" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="14" t="s">
         <v>54</v>
       </c>
       <c r="J20" s="1">
@@ -1229,7 +1230,7 @@
       <c r="G21" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="14" t="s">
         <v>55</v>
       </c>
       <c r="J21" s="1">
@@ -1246,7 +1247,7 @@
       <c r="G22" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="14" t="s">
         <v>56</v>
       </c>
       <c r="J22" s="1">
@@ -1263,7 +1264,7 @@
       <c r="G23" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="14" t="s">
         <v>57</v>
       </c>
       <c r="J23" s="1">
@@ -1340,7 +1341,7 @@
       <c r="E30">
         <v>7</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="J30" s="12" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1348,7 +1349,7 @@
       <c r="E31">
         <v>8</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="J31" s="12" t="s">
         <v>78</v>
       </c>
     </row>
